--- a/Dataset/data_sources_standardized.xlsx
+++ b/Dataset/data_sources_standardized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/supplemental_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhammiko\KAIST\2021Spring\IntrotoAI\Project\intellibots_spring21\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245ECFC-0B12-3E43-B20C-AB12B45CDA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5ACF35-2F02-4F23-ACB8-779B1CF69C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29800" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="29796" windowHeight="21936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2582,7 +2582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2595,13 +2595,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2628,16 +2642,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2938,18 +2956,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +3015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3087,7 +3106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3134,7 +3153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3260,7 +3279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3298,7 +3317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3345,7 +3364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3386,7 +3405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3430,7 +3449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3471,7 +3490,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3515,7 +3534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3559,7 +3578,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3606,7 +3625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3694,7 +3713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3738,7 +3757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3782,7 +3801,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3829,7 +3848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3873,7 +3892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3920,7 +3939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4005,7 +4024,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4052,7 +4071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4096,7 +4115,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4140,7 +4159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4184,7 +4203,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4231,7 +4250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4275,7 +4294,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4319,7 +4338,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4401,7 +4420,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4445,7 +4464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4492,7 +4511,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4536,7 +4555,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4577,7 +4596,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4668,7 +4687,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4756,7 +4775,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4800,7 +4819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4844,7 +4863,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4888,54 +4907,55 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>2015</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="K45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4976,7 +4996,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5017,7 +5037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5061,54 +5081,54 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>2017</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="K49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M49" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="M49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5196,7 +5216,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5240,7 +5260,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5287,7 +5307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5331,7 +5351,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5375,7 +5395,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5419,7 +5439,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5463,7 +5483,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5504,7 +5524,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5545,7 +5565,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5589,7 +5609,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5636,7 +5656,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5680,7 +5700,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5724,7 +5744,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5759,7 +5779,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5797,7 +5817,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5841,7 +5861,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5885,7 +5905,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5929,7 +5949,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5973,7 +5993,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6014,7 +6034,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6058,7 +6078,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6105,7 +6125,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6146,7 +6166,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6190,7 +6210,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6237,7 +6257,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6281,7 +6301,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6322,7 +6342,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6366,7 +6386,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6410,7 +6430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6498,7 +6518,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6542,7 +6562,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6583,7 +6603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6671,7 +6691,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6712,7 +6732,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6756,7 +6776,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6797,7 +6817,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6841,7 +6861,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6888,7 +6908,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6935,7 +6955,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6976,7 +6996,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7020,7 +7040,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7061,7 +7081,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7102,7 +7122,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7146,7 +7166,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7193,7 +7213,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7234,7 +7254,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7275,7 +7295,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7316,7 +7336,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7357,7 +7377,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7398,7 +7418,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7442,7 +7462,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7486,7 +7506,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7527,7 +7547,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7700,7 +7720,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7741,7 +7761,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7782,7 +7802,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7823,7 +7843,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7867,7 +7887,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7911,7 +7931,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7952,7 +7972,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7993,7 +8013,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8037,7 +8057,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8078,7 +8098,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8125,7 +8145,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8166,7 +8186,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8207,7 +8227,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8251,7 +8271,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8295,7 +8315,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8339,7 +8359,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8383,7 +8403,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8430,7 +8450,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8471,7 +8491,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8512,7 +8532,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8556,7 +8576,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8600,7 +8620,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8644,7 +8664,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8685,7 +8705,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8732,7 +8752,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8855,7 +8875,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8899,7 +8919,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8943,7 +8963,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8990,7 +9010,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9037,7 +9057,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9085,6 +9105,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O49" r:id="rId1" xr:uid="{9B0E4B37-BE83-440F-A8C4-E3195ACA5E8E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>